--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Master EIT\Madrid_UPM\Second Semester\Information Retrieval\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25057FB8-5C8E-4805-81D0-D1B40D384FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD56E98-B996-4970-8D2F-DB6125B741D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136:C202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
